--- a/BaiTapLonJaVa/9 - ke-hoach-lam-viec-nhom(2).xlsx
+++ b/BaiTapLonJaVa/9 - ke-hoach-lam-viec-nhom(2).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BaiTapLonJaVa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Báo Cáo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9BAD54-ED7D-41B0-A344-8EC3C56F0082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44615B49-576A-4FD9-8669-7A291F46626B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,26 +28,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
   <si>
     <t>KẾ HOẠCH LÀM VIỆC NHÓM</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">Tên chủ đề: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>"Xây dựng chương trình quản lý quán HIT-CAFE"</t>
-    </r>
   </si>
   <si>
     <t>Cách thức giao tiếp, trao đổi tài liệu trong nhóm: Qua Google Meet, Zalo</t>
@@ -199,6 +179,9 @@
   <si>
     <t>cả nhóm</t>
   </si>
+  <si>
+    <t xml:space="preserve">Tên chủ đề: </t>
+  </si>
 </sst>
 </file>
 
@@ -208,7 +191,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="m\-d\-yy"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -271,13 +254,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="&quot;Times New Roman&quot;"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
     </font>
     <font>
       <sz val="14"/>
@@ -546,27 +522,43 @@
     <xf numFmtId="14" fontId="11" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -579,24 +571,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -818,8 +794,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -832,17 +808,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -862,12 +838,12 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="C2" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -894,17 +870,17 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A3" s="40" t="s">
-        <v>34</v>
+      <c r="A3" s="46" t="s">
+        <v>33</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -924,17 +900,17 @@
       <c r="Z3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A4" s="44" t="s">
-        <v>38</v>
+      <c r="A4" s="50" t="s">
+        <v>37</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -954,17 +930,17 @@
       <c r="Z4" s="4"/>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A5" s="44" t="s">
-        <v>37</v>
+      <c r="A5" s="50" t="s">
+        <v>36</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -984,17 +960,17 @@
       <c r="Z5" s="4"/>
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A6" s="44" t="s">
-        <v>36</v>
+      <c r="A6" s="50" t="s">
+        <v>35</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -1015,10 +991,10 @@
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="32"/>
       <c r="D7" s="32"/>
@@ -1047,7 +1023,7 @@
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1076,10 +1052,10 @@
       <c r="Z8" s="4"/>
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A9" s="40" t="s">
-        <v>3</v>
+      <c r="A9" s="46" t="s">
+        <v>2</v>
       </c>
-      <c r="B9" s="40"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -1106,11 +1082,11 @@
       <c r="Z9" s="4"/>
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A10" s="40" t="s">
-        <v>4</v>
+      <c r="A10" s="46" t="s">
+        <v>3</v>
       </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -1136,11 +1112,11 @@
       <c r="Z10" s="4"/>
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A11" s="41" t="s">
-        <v>5</v>
+      <c r="A11" s="47" t="s">
+        <v>4</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -1166,16 +1142,16 @@
       <c r="Z11" s="4"/>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A12" s="40" t="s">
-        <v>6</v>
+      <c r="A12" s="46" t="s">
+        <v>5</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
       <c r="I12" s="6"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -1225,33 +1201,33 @@
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1">
       <c r="A14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="E14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="F14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="G14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="H14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="I14" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="46"/>
+      <c r="J14" s="41"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
@@ -1274,10 +1250,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="33">
         <v>45303</v>
@@ -1289,15 +1265,15 @@
         <v>45303</v>
       </c>
       <c r="G15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="I15" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="46"/>
+      <c r="J15" s="41"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
@@ -1320,10 +1296,10 @@
         <v>2</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" s="13">
         <v>45303</v>
@@ -1335,13 +1311,13 @@
         <v>45303</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H16" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
-      <c r="I16" s="47"/>
-      <c r="J16" s="46"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="41"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
@@ -1364,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="33">
         <v>45303</v>
@@ -1379,13 +1355,13 @@
         <v>45363</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H17" s="36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
-      <c r="I17" s="47"/>
-      <c r="J17" s="46"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="41"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -1408,7 +1384,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="17">
         <v>45627</v>
@@ -1423,13 +1399,13 @@
         <v>45394</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H18" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
-      <c r="I18" s="47"/>
-      <c r="J18" s="46"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="41"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -1452,7 +1428,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="18">
         <v>45334</v>
@@ -1467,13 +1443,13 @@
         <v>45334</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H19" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
-      <c r="I19" s="48"/>
-      <c r="J19" s="46"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="41"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -1496,7 +1472,7 @@
         <v>6</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="18">
         <v>45363</v>
@@ -1511,13 +1487,13 @@
         <v>45363</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H20" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
-      <c r="I20" s="47"/>
-      <c r="J20" s="46"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="41"/>
       <c r="K20" s="20"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -1540,7 +1516,7 @@
         <v>7</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="18">
         <v>45363</v>
@@ -1555,13 +1531,13 @@
         <v>45363</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H21" s="34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
-      <c r="I21" s="47"/>
-      <c r="J21" s="46"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="41"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -1584,7 +1560,7 @@
         <v>8</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="18">
         <v>45363</v>
@@ -1599,13 +1575,13 @@
         <v>45363</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H22" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
-      <c r="I22" s="47"/>
-      <c r="J22" s="46"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="41"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -1628,7 +1604,7 @@
         <v>9</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="18">
         <v>45363</v>
@@ -1643,13 +1619,13 @@
         <v>45424</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H23" s="36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
-      <c r="I23" s="47"/>
-      <c r="J23" s="46"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="41"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -1672,7 +1648,7 @@
         <v>11</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="22">
         <v>45394</v>
@@ -1687,13 +1663,13 @@
         <v>45424</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H24" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
-      <c r="I24" s="49"/>
-      <c r="J24" s="50"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="43"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -1716,7 +1692,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="13">
         <v>45424</v>
@@ -1731,13 +1707,13 @@
         <v>45455</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H25" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
-      <c r="I25" s="47"/>
-      <c r="J25" s="46"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="41"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -1760,7 +1736,7 @@
         <v>18</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" s="13">
         <v>45485</v>
@@ -1775,13 +1751,13 @@
         <v>45485</v>
       </c>
       <c r="G26" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="H26" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" s="47"/>
-      <c r="J26" s="46"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="41"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -1804,7 +1780,7 @@
         <v>19</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" s="13">
         <v>45516</v>
@@ -1819,13 +1795,13 @@
         <v>45577</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H27" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
-      <c r="I27" s="47"/>
-      <c r="J27" s="46"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="41"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -1848,7 +1824,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" s="13">
         <v>45608</v>
@@ -1863,13 +1839,13 @@
         <v>45608</v>
       </c>
       <c r="G28" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="H28" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" s="47"/>
-      <c r="J28" s="46"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="41"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -1892,7 +1868,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" s="13">
         <v>45638</v>
@@ -1901,19 +1877,19 @@
         <v>45638</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F29" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
-      <c r="I29" s="47"/>
-      <c r="J29" s="46"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="41"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -1926,30 +1902,30 @@
         <v>22</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F30" s="39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G30" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="11" t="s">
+      <c r="I30" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="I30" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="J30" s="46"/>
+      <c r="J30" s="41"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -29069,23 +29045,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
     <mergeCell ref="A12:H12"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A10:C10"/>
@@ -29096,6 +29055,23 @@
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A6:I6"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
